--- a/src/test/resources/TestData/TestingData.xlsx
+++ b/src/test/resources/TestData/TestingData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/NinjaGalaxy-dsAlgo/src/test/resources/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/TestNG/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C5663-4E9E-B345-9EF4-E6C0A437860C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACB87F-EC4A-1642-8A3D-D0BE8840281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>This is a test message !</t>
-  </si>
-  <si>
     <t>print('Python is fun!');</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Ninja_Galaxy20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	print('Hello</t>
   </si>
 </sst>
 </file>
@@ -613,19 +613,19 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -636,41 +636,41 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB5C662-2F1E-4CFF-8416-7834CF626327}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -699,17 +699,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4021EB5-FFC0-442B-8BA4-F9B02CB7FCEA}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,45 +751,45 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8">
         <v>259603</v>
@@ -800,24 +800,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -845,23 +845,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="335" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -884,23 +884,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/TestingData.xlsx
+++ b/src/test/resources/TestData/TestingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/TestNG/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACB87F-EC4A-1642-8A3D-D0BE8840281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BBE75E-BC8C-6A45-B5AC-DDE98CDA1FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -58,16 +58,7 @@
     <t>password confirmation</t>
   </si>
   <si>
-    <t>NumpyNinja</t>
-  </si>
-  <si>
-    <t>NinjaGalaxy</t>
-  </si>
-  <si>
     <t>Querty1</t>
-  </si>
-  <si>
-    <t>Ninja Galaxy</t>
   </si>
   <si>
     <t>Ninja_Galaxy</t>
@@ -161,10 +152,10 @@
 print("Count of numbers with even number of digits:", result)</t>
   </si>
   <si>
-    <t>Ninja_Galaxy20</t>
-  </si>
-  <si>
     <t xml:space="preserve">	print('Hello</t>
+  </si>
+  <si>
+    <t>Ninja_Galaxy21</t>
   </si>
 </sst>
 </file>
@@ -602,7 +593,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -613,16 +604,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -642,23 +633,23 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -667,10 +658,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -688,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB5C662-2F1E-4CFF-8416-7834CF626327}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -709,7 +700,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -720,10 +711,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4021EB5-FFC0-442B-8BA4-F9B02CB7FCEA}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -751,79 +742,52 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="8">
+        <v>259603</v>
+      </c>
+      <c r="C4" s="8">
+        <v>259603</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8">
-        <v>259603</v>
-      </c>
-      <c r="C7" s="8">
-        <v>259603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -850,18 +814,18 @@
     </row>
     <row r="2" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="335" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -889,18 +853,18 @@
     </row>
     <row r="2" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/TestingData.xlsx
+++ b/src/test/resources/TestData/TestingData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/TestNG/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BBE75E-BC8C-6A45-B5AC-DDE98CDA1FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8755B8C7-21D0-FA42-B20E-D735EBB06C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="3" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="tryEditorCode" sheetId="2" r:id="rId2"/>
     <sheet name="Register" sheetId="3" r:id="rId3"/>
-    <sheet name="pythonCode1" sheetId="4" r:id="rId4"/>
+    <sheet name="pythonCode" sheetId="4" r:id="rId4"/>
     <sheet name="ArrayPracticeQnsQ1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -105,27 +105,6 @@
 search([12, 23, 45, 67, 6, 90] , 12)</t>
   </si>
   <si>
-    <t>def findMaxConsecutiveOnes(nums) :
-count = 0
-result = 0
-for i in range(0, len(nums)):
-if (nums[i] == 0):
-count = 0
-\xc
-\xc
-else:
-count+= 1
-\xc
-\xc
-result = max(result, count)
-\xc
-\xc
-print(result)
-\xc
-\xc
-findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
-  </si>
-  <si>
     <t>def search(input_list, num):
     if num in input_list:
         print("Element Found")
@@ -138,6 +117,12 @@
   </si>
   <si>
     <t>valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	print('Hello</t>
+  </si>
+  <si>
+    <t>Ninja_Galaxy21</t>
   </si>
   <si>
     <t>def count_even_digit_numbers(nums):
@@ -148,14 +133,24 @@
     return count
 # Example usage
 input_list = [12, 345, 2, 6, 7896]
-result = count_even_digit_numbers(input_list)
+#result = count_even_digit_numbers(input_list)
 print("Count of numbers with even number of digits:", result)</t>
   </si>
   <si>
-    <t xml:space="preserve">	print('Hello</t>
-  </si>
-  <si>
-    <t>Ninja_Galaxy21</t>
+    <t>print("error</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums):
+    count = 0
+    result = 0
+    for i in range(len(nums)):
+        if nums[i] == 0:
+            count = 0
+        else:
+            count += 1
+            result = max(result, count)
+    print(result)
+findMaxConsecutiveOnes([1, 0, 1, 1, 0, 1])</t>
   </si>
 </sst>
 </file>
@@ -260,9 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -274,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,7 +695,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4021EB5-FFC0-442B-8BA4-F9B02CB7FCEA}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -775,7 +770,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -796,10 +791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875F45C9-E8D1-4876-9F15-29F9E09BBFAD}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,19 +808,30 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="210" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="335" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +844,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -847,24 +853,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="192" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/TestingData.xlsx
+++ b/src/test/resources/TestData/TestingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/TestNG/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8755B8C7-21D0-FA42-B20E-D735EBB06C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5486F361-EB1A-6349-ABB9-64DA30B2D574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="3" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
   </bookViews>
@@ -119,12 +119,6 @@
     <t>valid</t>
   </si>
   <si>
-    <t xml:space="preserve">	print('Hello</t>
-  </si>
-  <si>
-    <t>Ninja_Galaxy21</t>
-  </si>
-  <si>
     <t>def count_even_digit_numbers(nums):
     count = 0
     for num in nums:
@@ -133,8 +127,14 @@
     return count
 # Example usage
 input_list = [12, 345, 2, 6, 7896]
-#result = count_even_digit_numbers(input_list)
+result = count_even_digit_numbers(input_list)
 print("Count of numbers with even number of digits:", result)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	print('Hello</t>
+  </si>
+  <si>
+    <t>Ninja_Galaxy21</t>
   </si>
   <si>
     <t>print("error</t>
@@ -695,7 +695,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +770,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875F45C9-E8D1-4876-9F15-29F9E09BBFAD}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -809,7 +809,7 @@
     </row>
     <row r="2" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>20</v>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA044C8-2CEB-4E98-9FFF-6F4E53BF7039}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/TestData/TestingData.xlsx
+++ b/src/test/resources/TestData/TestingData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/NinjaGalaxy-dsAlgo/src/test/resources/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/TestNG/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C5663-4E9E-B345-9EF4-E6C0A437860C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DBCA8-E670-AB46-BC36-2707893A3BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -61,40 +61,16 @@
     <t>password confirmation</t>
   </si>
   <si>
-    <t>NumpyNinja</t>
-  </si>
-  <si>
-    <t>NinjaGalaxy</t>
-  </si>
-  <si>
     <t>Querty1</t>
   </si>
   <si>
-    <t>Ninja Galaxy</t>
-  </si>
-  <si>
     <t>Ninja_Galaxy</t>
   </si>
   <si>
     <t>testingdemo</t>
   </si>
   <si>
-    <t>testingdemo123</t>
-  </si>
-  <si>
     <t>Ninja_Galaxy123</t>
-  </si>
-  <si>
-    <t>wert</t>
-  </si>
-  <si>
-    <t>csfa</t>
-  </si>
-  <si>
-    <t>rtaa</t>
-  </si>
-  <si>
-    <t>rwerqw</t>
   </si>
   <si>
     <t>Username</t>
@@ -164,7 +140,13 @@
 print("Count of numbers with even number of digits:", result)</t>
   </si>
   <si>
-    <t>Ninja_Galaxy20</t>
+    <t>print("error</t>
+  </si>
+  <si>
+    <t>testuser02</t>
+  </si>
+  <si>
+    <t>Ninja_Galaxy31</t>
   </si>
 </sst>
 </file>
@@ -217,15 +199,15 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,20 +244,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -283,6 +261,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -599,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CD3947-FABD-4E43-9D5C-96775582D864}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -613,16 +595,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -634,50 +616,23 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,110 +675,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4021EB5-FFC0-442B-8BA4-F9B02CB7FCEA}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1234567890</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2134567890</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>259603</v>
-      </c>
-      <c r="C7" s="8">
-        <v>259603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -832,10 +739,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875F45C9-E8D1-4876-9F15-29F9E09BBFAD}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -849,19 +756,30 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="210" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="335" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" ht="335" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -883,24 +801,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>23</v>
+      <c r="A2" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="192" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>21</v>
+      <c r="A3" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/TestingData.xlsx
+++ b/src/test/resources/TestData/TestingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/TestNG/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DBCA8-E670-AB46-BC36-2707893A3BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F245547E-DC6E-5F44-ADD8-C359979A6D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="3" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -147,6 +147,23 @@
   </si>
   <si>
     <t>Ninja_Galaxy31</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums) :
+count = 0
+result = 0
+for i in range(0, len(nums)):
+if (nums[i] == 0):
+count = 0
+\xc
+\xc
+else:
+count+= 1
+\xc
+\xc
+result = max(result, count)
+\xc
+findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
   </si>
 </sst>
 </file>
@@ -677,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4021EB5-FFC0-442B-8BA4-F9B02CB7FCEA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -741,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875F45C9-E8D1-4876-9F15-29F9E09BBFAD}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -755,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="210" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -763,13 +780,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" ht="335" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="372" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -777,9 +794,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/TestingData.xlsx
+++ b/src/test/resources/TestData/TestingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/TestNG/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F245547E-DC6E-5F44-ADD8-C359979A6D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89BD7A-439F-DB4F-986C-7E054B68D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="3" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="4" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -758,9 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875F45C9-E8D1-4876-9F15-29F9E09BBFAD}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -808,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA044C8-2CEB-4E98-9FFF-6F4E53BF7039}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/TestData/TestingData.xlsx
+++ b/src/test/resources/TestData/TestingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/TestNG/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89BD7A-439F-DB4F-986C-7E054B68D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E2092-B32D-E542-9153-EC7353B859B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="4" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>testuser02</t>
   </si>
   <si>
-    <t>Ninja_Galaxy31</t>
-  </si>
-  <si>
     <t>def findMaxConsecutiveOnes(nums) :
 count = 0
 result = 0
@@ -164,6 +161,9 @@
 result = max(result, count)
 \xc
 findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
+  </si>
+  <si>
+    <t>Ninja_Galaxy32</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4021EB5-FFC0-442B-8BA4-F9B02CB7FCEA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -740,7 +740,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5" spans="1:2" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA044C8-2CEB-4E98-9FFF-6F4E53BF7039}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData/TestingData.xlsx
+++ b/src/test/resources/TestData/TestingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/TestNG/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E2092-B32D-E542-9153-EC7353B859B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB71C03-25E5-DC49-B67E-6CAB5501DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="3" xr2:uid="{C2348D72-976D-4F37-A81F-BEBD0C413FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -91,27 +91,6 @@
 \xc
 \xc
 search([12, 23, 45, 67, 6, 90] , 12)</t>
-  </si>
-  <si>
-    <t>def findMaxConsecutiveOnes(nums) :
-count = 0
-result = 0
-for i in range(0, len(nums)):
-if (nums[i] == 0):
-count = 0
-\xc
-\xc
-else:
-count+= 1
-\xc
-\xc
-result = max(result, count)
-\xc
-\xc
-print(result)
-\xc
-\xc
-findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
   </si>
   <si>
     <t>def search(input_list, num):
@@ -140,9 +119,6 @@
 print("Count of numbers with even number of digits:", result)</t>
   </si>
   <si>
-    <t>print("error</t>
-  </si>
-  <si>
     <t>testuser02</t>
   </si>
   <si>
@@ -164,6 +140,19 @@
   </si>
   <si>
     <t>Ninja_Galaxy32</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums):
+    count = 0
+    result = 0
+    for i in range(len(nums)):
+        if nums[i] == 1:
+            count += 1
+            result = max(result, count)
+        else:
+            count = 0
+    print(result)
+findMaxConsecutiveOnes([1, 0, 1, 1, 0, 1])</t>
   </si>
 </sst>
 </file>
@@ -251,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -263,9 +252,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -634,7 +620,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -661,7 +647,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -694,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4021EB5-FFC0-442B-8BA4-F9B02CB7FCEA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -706,46 +692,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>1234567890</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>2134567890</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -758,7 +744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875F45C9-E8D1-4876-9F15-29F9E09BBFAD}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -770,31 +758,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="227" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:2" ht="190" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" ht="372" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="1:2" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:2" ht="372" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -816,24 +804,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="192" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
